--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +272,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
-    <t>Besoin</t>
+    <t>Action</t>
   </si>
   <si>
     <t>Request, Event</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -730,7 +730,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-perso)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
 </t>
   </si>
   <si>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,6 +610,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>https://identifiant-medicosocial-action.esante.gouv.fr</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -730,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
 </t>
   </si>
   <si>
@@ -3970,7 +3973,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -4007,10 +4010,10 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -4046,7 +4049,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4067,21 +4070,21 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4089,7 +4092,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -4107,13 +4110,13 @@
         <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4127,7 +4130,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4163,7 +4166,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4184,21 +4187,21 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4221,13 +4224,13 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4278,7 +4281,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4299,21 +4302,21 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4336,16 +4339,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4395,7 +4398,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4416,21 +4419,21 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4453,17 +4456,17 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4512,7 +4515,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4530,10 +4533,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4544,10 +4547,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4573,14 +4576,14 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4629,7 +4632,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4647,10 +4650,10 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4661,10 +4664,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4687,13 +4690,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4744,7 +4747,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4759,13 +4762,13 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4776,10 +4779,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4805,14 +4808,14 @@
         <v>147</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4861,7 +4864,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4879,10 +4882,10 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4893,10 +4896,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4919,19 +4922,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4980,7 +4983,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4998,10 +5001,10 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5012,10 +5015,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5041,14 +5044,14 @@
         <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5076,10 +5079,10 @@
         <v>171</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5097,7 +5100,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -5112,16 +5115,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5129,10 +5132,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5158,13 +5161,13 @@
         <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5190,10 +5193,10 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -5214,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5235,7 +5238,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5275,14 +5278,14 @@
         <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5307,10 +5310,10 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -5331,7 +5334,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5352,7 +5355,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5363,10 +5366,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5392,13 +5395,13 @@
         <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5427,10 +5430,10 @@
         <v>171</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5448,7 +5451,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
@@ -5466,13 +5469,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5480,10 +5483,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5509,20 +5512,20 @@
         <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>78</v>
@@ -5546,10 +5549,10 @@
         <v>171</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5567,7 +5570,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5585,13 +5588,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5599,10 +5602,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5628,13 +5631,13 @@
         <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5660,13 +5663,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5684,7 +5687,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5702,13 +5705,13 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5716,10 +5719,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5745,10 +5748,10 @@
         <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5799,7 +5802,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5814,13 +5817,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5831,10 +5834,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5857,19 +5860,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5918,7 +5921,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5939,10 +5942,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5950,14 +5953,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5976,17 +5979,17 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6035,7 +6038,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6053,13 +6056,13 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6067,10 +6070,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6093,17 +6096,17 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6152,7 +6155,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6170,13 +6173,13 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6184,10 +6187,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6210,13 +6213,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6267,7 +6270,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6285,13 +6288,13 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6299,10 +6302,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6414,10 +6417,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6531,10 +6534,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6557,16 +6560,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6616,7 +6619,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6625,33 +6628,33 @@
         <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6674,23 +6677,23 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
@@ -6735,7 +6738,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6744,37 +6747,37 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6793,17 +6796,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6852,7 +6855,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6861,7 +6864,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6870,13 +6873,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6884,14 +6887,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6910,17 +6913,17 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6969,7 +6972,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6978,7 +6981,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
@@ -6990,7 +6993,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -7001,10 +7004,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7027,17 +7030,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7086,7 +7089,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7104,13 +7107,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7118,10 +7121,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7147,14 +7150,14 @@
         <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7182,10 +7185,10 @@
         <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7203,7 +7206,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7221,13 +7224,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7235,14 +7238,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7261,19 +7264,19 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7322,7 +7325,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7337,16 +7340,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7354,10 +7357,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7380,17 +7383,17 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7439,7 +7442,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7457,13 +7460,13 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7471,10 +7474,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7500,13 +7503,13 @@
         <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7532,10 +7535,10 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7556,7 +7559,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7574,24 +7577,24 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7614,16 +7617,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7673,7 +7676,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7691,13 +7694,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7705,10 +7708,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7731,13 +7734,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7788,7 +7791,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7806,24 +7809,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7846,13 +7849,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7903,7 +7906,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7921,10 +7924,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7935,14 +7938,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7961,16 +7964,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8020,7 +8023,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8038,10 +8041,10 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8052,10 +8055,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8078,17 +8081,17 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8137,7 +8140,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8158,7 +8161,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8169,10 +8172,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8284,10 +8287,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8401,14 +8404,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8430,10 +8433,10 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>138</v>
@@ -8488,7 +8491,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8520,10 +8523,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8546,17 +8549,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8605,7 +8608,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8626,7 +8629,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8637,10 +8640,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8663,19 +8666,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8724,7 +8727,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8745,7 +8748,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8756,10 +8759,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8782,13 +8785,13 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8839,7 +8842,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8860,7 +8863,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8871,14 +8874,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8897,17 +8900,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8944,7 +8947,7 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
@@ -8954,7 +8957,7 @@
         <v>164</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8975,7 +8978,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8986,10 +8989,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9101,10 +9104,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9218,14 +9221,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9247,10 +9250,10 @@
         <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>138</v>
@@ -9305,7 +9308,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9337,14 +9340,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9366,16 +9369,16 @@
         <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9400,10 +9403,10 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9424,7 +9427,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>89</v>
@@ -9445,7 +9448,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9456,10 +9459,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9482,13 +9485,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9539,7 +9542,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9560,7 +9563,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9571,16 +9574,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9599,17 +9602,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9658,7 +9661,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9673,13 +9676,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9690,10 +9693,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9805,10 +9808,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9922,14 +9925,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9951,10 +9954,10 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>138</v>
@@ -10009,7 +10012,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10041,14 +10044,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10070,16 +10073,16 @@
         <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10089,7 +10092,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10104,10 +10107,10 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
@@ -10128,7 +10131,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -10149,7 +10152,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10160,10 +10163,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10189,10 +10192,10 @@
         <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10243,7 +10246,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>89</v>
@@ -10264,7 +10267,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10275,16 +10278,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10303,17 +10306,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10362,7 +10365,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10377,13 +10380,13 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10394,10 +10397,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10509,10 +10512,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10626,14 +10629,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10655,10 +10658,10 @@
         <v>135</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -10713,7 +10716,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10745,14 +10748,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10774,16 +10777,16 @@
         <v>177</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10793,7 +10796,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10808,10 +10811,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10832,7 +10835,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>89</v>
@@ -10853,7 +10856,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10864,10 +10867,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10890,13 +10893,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10947,7 +10950,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>89</v>
@@ -10968,7 +10971,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10979,16 +10982,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11007,17 +11010,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11066,7 +11069,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11081,13 +11084,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11098,10 +11101,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11213,10 +11216,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11330,14 +11333,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11359,10 +11362,10 @@
         <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>138</v>
@@ -11417,7 +11420,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11449,14 +11452,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11478,16 +11481,16 @@
         <v>177</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11497,7 +11500,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11512,10 +11515,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11536,7 +11539,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11557,7 +11560,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11568,10 +11571,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11597,10 +11600,10 @@
         <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11651,7 +11654,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>89</v>
@@ -11672,7 +11675,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11683,16 +11686,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11711,17 +11714,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11770,7 +11773,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11785,13 +11788,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11802,10 +11805,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11917,10 +11920,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12034,14 +12037,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12063,10 +12066,10 @@
         <v>135</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>138</v>
@@ -12121,7 +12124,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12153,14 +12156,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12182,16 +12185,16 @@
         <v>177</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12201,7 +12204,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12216,10 +12219,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12240,7 +12243,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>89</v>
@@ -12261,7 +12264,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12272,10 +12275,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12301,10 +12304,10 @@
         <v>155</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12355,7 +12358,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>89</v>
@@ -12376,7 +12379,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12387,16 +12390,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12415,17 +12418,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12474,7 +12477,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12489,13 +12492,13 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12506,10 +12509,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12621,10 +12624,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12738,14 +12741,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12767,10 +12770,10 @@
         <v>135</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>138</v>
@@ -12825,7 +12828,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12857,14 +12860,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12886,16 +12889,16 @@
         <v>177</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12905,7 +12908,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -12920,10 +12923,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12944,7 +12947,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>89</v>
@@ -12965,7 +12968,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12976,10 +12979,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13002,13 +13005,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13059,7 +13062,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>89</v>
@@ -13080,7 +13083,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13091,16 +13094,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13119,17 +13122,17 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13178,7 +13181,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13193,13 +13196,13 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13210,10 +13213,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13325,10 +13328,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13442,14 +13445,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13471,10 +13474,10 @@
         <v>135</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>138</v>
@@ -13529,7 +13532,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13561,14 +13564,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13590,16 +13593,16 @@
         <v>177</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13609,7 +13612,7 @@
         <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>78</v>
@@ -13624,10 +13627,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13648,7 +13651,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>89</v>
@@ -13669,7 +13672,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13680,10 +13683,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13706,13 +13709,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13763,7 +13766,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>89</v>
@@ -13784,7 +13787,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13795,16 +13798,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13823,17 +13826,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13882,7 +13885,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -13897,13 +13900,13 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -13914,10 +13917,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14029,10 +14032,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14146,14 +14149,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14175,10 +14178,10 @@
         <v>135</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>138</v>
@@ -14233,7 +14236,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14265,14 +14268,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14294,16 +14297,16 @@
         <v>177</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14313,7 +14316,7 @@
         <v>78</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>78</v>
@@ -14328,10 +14331,10 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>78</v>
@@ -14352,7 +14355,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>89</v>
@@ -14373,7 +14376,7 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14384,10 +14387,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14410,13 +14413,13 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14467,7 +14470,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>89</v>
@@ -14488,7 +14491,7 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14499,10 +14502,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14525,17 +14528,17 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14584,7 +14587,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14605,7 +14608,7 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14616,10 +14619,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14731,10 +14734,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14848,14 +14851,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14877,10 +14880,10 @@
         <v>135</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>138</v>
@@ -14935,7 +14938,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14967,14 +14970,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14996,14 +14999,14 @@
         <v>177</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -15028,10 +15031,10 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>78</v>
@@ -15052,7 +15055,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>89</v>
@@ -15073,7 +15076,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15084,10 +15087,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15110,17 +15113,17 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15169,7 +15172,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>89</v>
@@ -15190,7 +15193,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="627">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -947,6 +947,56 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Task.status.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Task.status.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Task.status.extension:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author}
+</t>
+  </si>
+  <si>
+    <t>TDDUI Profession</t>
+  </si>
+  <si>
+    <t>Extension permettant de représenter la profession du professionnel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>statutAction.auteur</t>
+  </si>
+  <si>
+    <t>Task.status.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Task.statusReason</t>
@@ -2237,7 +2287,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO113"/>
+  <dimension ref="A1:AO117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6178,10 +6228,10 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>303</v>
@@ -6189,9 +6239,7 @@
       <c r="M34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -6216,10 +6264,10 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -6240,7 +6288,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6252,7 +6300,7 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6261,7 +6309,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6272,10 +6320,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6286,7 +6334,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6295,21 +6343,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6333,10 +6379,10 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -6345,31 +6391,29 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>117</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6378,7 +6422,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6389,18 +6433,20 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6412,20 +6458,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6450,13 +6494,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6474,31 +6518,31 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6506,10 +6550,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6532,24 +6576,20 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6569,13 +6609,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6593,7 +6633,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6605,19 +6645,19 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6625,10 +6665,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6654,13 +6694,13 @@
         <v>219</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6689,10 +6729,10 @@
         <v>156</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6710,7 +6750,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6728,13 +6768,13 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6742,10 +6782,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6768,16 +6808,18 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6801,10 +6843,10 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6825,7 +6867,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6840,13 +6882,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6857,10 +6899,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6868,7 +6910,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -6883,20 +6925,18 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6920,13 +6960,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6944,10 +6984,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>89</v>
@@ -6962,13 +7002,13 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6976,14 +7016,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6999,25 +7039,27 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>78</v>
       </c>
@@ -7037,13 +7079,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -7061,7 +7103,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7079,13 +7121,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -7093,10 +7135,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7119,18 +7161,18 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>363</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -7154,13 +7196,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -7178,7 +7220,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7196,13 +7238,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7210,10 +7252,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7236,13 +7278,13 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7293,7 +7335,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7308,16 +7350,16 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7325,10 +7367,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7348,19 +7390,23 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>104</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7408,7 +7454,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7420,7 +7466,7 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7429,10 +7475,10 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>369</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7440,21 +7486,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>109</v>
+        <v>371</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7463,21 +7509,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7513,43 +7559,43 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>117</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7591,10 +7637,10 @@
       <c r="M46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7642,7 +7688,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7651,33 +7697,33 @@
         <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO46" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7700,24 +7746,20 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>247</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q47" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7761,7 +7803,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7770,37 +7812,37 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7819,18 +7861,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>399</v>
+        <v>104</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7878,7 +7918,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7887,22 +7927,22 @@
         <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>404</v>
+        <v>107</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7910,21 +7950,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>407</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7933,21 +7973,21 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7983,31 +8023,31 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>406</v>
+        <v>117</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8016,7 +8056,7 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>411</v>
+        <v>107</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -8027,10 +8067,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8053,18 +8093,18 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8112,7 +8152,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8121,33 +8161,33 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8158,7 +8198,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -8167,25 +8207,27 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8205,13 +8247,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8229,46 +8271,46 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8284,22 +8326,20 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8348,7 +8388,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8357,22 +8397,22 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8380,14 +8420,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8406,17 +8446,17 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8465,7 +8505,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8474,7 +8514,7 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>101</v>
@@ -8483,13 +8523,13 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8497,10 +8537,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8520,21 +8560,21 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>219</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8558,10 +8598,10 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
@@ -8582,7 +8622,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8600,24 +8640,24 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8628,7 +8668,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8640,18 +8680,18 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>219</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8675,13 +8715,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8699,13 +8739,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8717,13 +8757,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8731,21 +8771,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8754,19 +8794,23 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8814,13 +8858,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8829,27 +8873,27 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8860,7 +8904,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8869,19 +8913,21 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8929,13 +8975,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8947,13 +8993,13 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8961,21 +9007,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8987,16 +9033,16 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>476</v>
+        <v>219</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9022,10 +9068,10 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>78</v>
@@ -9046,13 +9092,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -9064,24 +9110,24 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9104,18 +9150,18 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>483</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9163,7 +9209,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9181,13 +9227,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9195,10 +9241,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9209,7 +9255,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -9221,13 +9267,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>105</v>
+        <v>480</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9278,46 +9324,46 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>106</v>
+        <v>477</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>107</v>
+        <v>482</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9336,17 +9382,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>110</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9395,7 +9439,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>117</v>
+        <v>484</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9407,16 +9451,16 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>107</v>
+        <v>489</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9447,26 +9491,24 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>110</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9514,7 +9556,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9526,16 +9568,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>189</v>
+        <v>497</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9546,10 +9588,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9572,17 +9614,17 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9631,7 +9673,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9652,7 +9694,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9663,10 +9705,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9689,20 +9731,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9750,7 +9788,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>501</v>
+        <v>106</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9762,7 +9800,7 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9771,7 +9809,7 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>506</v>
+        <v>107</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9782,14 +9820,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9808,15 +9846,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>508</v>
+        <v>110</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>509</v>
+        <v>111</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9865,7 +9905,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>507</v>
+        <v>117</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9877,7 +9917,7 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9886,7 +9926,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>511</v>
+        <v>107</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9897,18 +9937,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9917,23 +9957,25 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O66" t="s" s="2">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9970,17 +10012,19 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9992,7 +10036,7 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10001,7 +10045,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>518</v>
+        <v>189</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10012,10 +10056,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10038,16 +10082,18 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>104</v>
+        <v>513</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>105</v>
+        <v>514</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -10095,7 +10141,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>106</v>
+        <v>511</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10107,7 +10153,7 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10116,7 +10162,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10127,21 +10173,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -10153,18 +10199,20 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>111</v>
+        <v>518</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>112</v>
+        <v>519</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -10212,19 +10260,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>117</v>
+        <v>517</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10233,7 +10281,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>107</v>
+        <v>522</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10244,14 +10292,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10264,26 +10312,22 @@
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>110</v>
+        <v>524</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10331,7 +10375,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10343,7 +10387,7 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10352,7 +10396,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>189</v>
+        <v>527</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10363,21 +10407,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10389,19 +10433,17 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10426,37 +10468,35 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AC70" s="2"/>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10471,7 +10511,7 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10482,10 +10522,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10493,7 +10533,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -10508,13 +10548,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>530</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10565,10 +10605,10 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>89</v>
@@ -10577,7 +10617,7 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10586,7 +10626,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10597,23 +10637,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10625,18 +10663,18 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>535</v>
+        <v>111</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10684,7 +10722,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10696,16 +10734,16 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>536</v>
+        <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10719,39 +10757,43 @@
         <v>537</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10799,19 +10841,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10820,7 +10862,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10834,18 +10876,18 @@
         <v>538</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10857,18 +10899,20 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10892,10 +10936,10 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10916,19 +10960,19 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10937,7 +10981,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10948,46 +10992,42 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>110</v>
+        <v>546</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -11035,19 +11075,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11056,7 +11096,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11067,14 +11107,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11093,19 +11135,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11115,7 +11155,7 @@
         <v>78</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>78</v>
@@ -11130,37 +11170,37 @@
         <v>78</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
@@ -11169,13 +11209,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11186,10 +11226,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11197,7 +11237,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>89</v>
@@ -11215,10 +11255,10 @@
         <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11269,10 +11309,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>89</v>
@@ -11281,7 +11321,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11290,7 +11330,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11301,16 +11341,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11329,18 +11367,18 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>545</v>
+        <v>111</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11388,7 +11426,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11400,16 +11438,16 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>546</v>
+        <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11420,42 +11458,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11503,19 +11545,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11524,7 +11566,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11535,21 +11577,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
@@ -11561,18 +11603,20 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11581,7 +11625,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>78</v>
+        <v>557</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>78</v>
@@ -11596,10 +11640,10 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>78</v>
@@ -11620,19 +11664,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11641,7 +11685,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11652,46 +11696,42 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11739,19 +11779,19 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11760,7 +11800,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11771,21 +11811,23 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11797,19 +11839,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11819,7 +11859,7 @@
         <v>78</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>551</v>
+        <v>78</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>78</v>
@@ -11834,37 +11874,37 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
@@ -11873,13 +11913,13 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>562</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11890,10 +11930,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11901,7 +11941,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>89</v>
@@ -11916,13 +11956,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>553</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11973,10 +12013,10 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>89</v>
@@ -11985,7 +12025,7 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11994,7 +12034,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12005,23 +12045,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -12033,18 +12071,18 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>556</v>
+        <v>111</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -12092,7 +12130,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12104,16 +12142,16 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>557</v>
+        <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12124,42 +12162,46 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12207,19 +12249,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12228,7 +12270,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12239,21 +12281,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12265,18 +12307,20 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12285,7 +12329,7 @@
         <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>78</v>
+        <v>567</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>78</v>
@@ -12300,10 +12344,10 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
@@ -12324,19 +12368,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12345,7 +12389,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12356,46 +12400,42 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>110</v>
+        <v>569</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12443,19 +12483,19 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12464,7 +12504,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12475,18 +12515,20 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
@@ -12501,19 +12543,17 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12523,7 +12563,7 @@
         <v>78</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>562</v>
+        <v>78</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>78</v>
@@ -12538,37 +12578,37 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
@@ -12577,13 +12617,13 @@
         <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12594,10 +12634,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12605,7 +12645,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>89</v>
@@ -12623,10 +12663,10 @@
         <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12677,10 +12717,10 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>89</v>
@@ -12689,7 +12729,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12698,7 +12738,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12709,23 +12749,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12737,18 +12775,18 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>566</v>
+        <v>111</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12796,7 +12834,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12808,16 +12846,16 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>567</v>
+        <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12828,42 +12866,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12911,19 +12953,19 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12932,7 +12974,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12943,21 +12985,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12969,18 +13011,20 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12989,7 +13033,7 @@
         <v>78</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>78</v>
@@ -13004,10 +13048,10 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -13028,19 +13072,19 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13049,7 +13093,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -13060,46 +13104,42 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
@@ -13147,19 +13187,19 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13168,7 +13208,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13179,18 +13219,20 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -13205,19 +13247,17 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13227,7 +13267,7 @@
         <v>78</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>572</v>
+        <v>78</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>78</v>
@@ -13242,37 +13282,37 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
@@ -13281,13 +13321,13 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>78</v>
+        <v>583</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13298,10 +13338,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13309,7 +13349,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>89</v>
@@ -13327,10 +13367,10 @@
         <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13381,10 +13421,10 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>89</v>
@@ -13393,7 +13433,7 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13402,7 +13442,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13413,16 +13453,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13441,18 +13479,18 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>576</v>
+        <v>111</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13500,7 +13538,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13512,16 +13550,16 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>577</v>
+        <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13532,42 +13570,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13615,19 +13657,19 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13636,7 +13678,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13647,21 +13689,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13673,18 +13715,20 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13693,7 +13737,7 @@
         <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>78</v>
+        <v>588</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>78</v>
@@ -13708,10 +13752,10 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
@@ -13732,19 +13776,19 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13753,7 +13797,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13764,46 +13808,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13851,19 +13891,19 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13872,7 +13912,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13883,21 +13923,23 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="D100" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13909,19 +13951,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13931,7 +13971,7 @@
         <v>78</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>582</v>
+        <v>78</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>78</v>
@@ -13946,37 +13986,37 @@
         <v>78</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
@@ -13985,13 +14025,13 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>78</v>
+        <v>593</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -14002,10 +14042,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14013,7 +14053,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>89</v>
@@ -14028,13 +14068,13 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>584</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14085,10 +14125,10 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>89</v>
@@ -14097,7 +14137,7 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14106,7 +14146,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -14117,16 +14157,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14145,18 +14183,18 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>587</v>
+        <v>111</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -14204,7 +14242,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14216,16 +14254,16 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>587</v>
+        <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14236,42 +14274,46 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
@@ -14319,19 +14361,19 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14340,7 +14382,7 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14351,21 +14393,21 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>78</v>
@@ -14377,18 +14419,20 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14397,7 +14441,7 @@
         <v>78</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>78</v>
+        <v>598</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>78</v>
@@ -14412,10 +14456,10 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>78</v>
@@ -14436,19 +14480,19 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -14457,7 +14501,7 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14468,46 +14512,42 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14555,19 +14595,19 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -14576,7 +14616,7 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14587,21 +14627,23 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="D106" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14613,19 +14655,17 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>524</v>
+        <v>603</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14635,7 +14675,7 @@
         <v>78</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>592</v>
+        <v>78</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>78</v>
@@ -14650,37 +14690,37 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF106" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
@@ -14689,13 +14729,13 @@
         <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>78</v>
+        <v>603</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14706,10 +14746,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14717,7 +14757,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>89</v>
@@ -14732,13 +14772,13 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>594</v>
+        <v>103</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14789,10 +14829,10 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>529</v>
+        <v>106</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>89</v>
@@ -14801,7 +14841,7 @@
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -14810,7 +14850,7 @@
         <v>78</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14821,14 +14861,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>595</v>
+        <v>536</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14847,18 +14887,18 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>483</v>
+        <v>110</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>596</v>
+        <v>111</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
       </c>
@@ -14906,7 +14946,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>595</v>
+        <v>117</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14918,7 +14958,7 @@
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -14927,7 +14967,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>518</v>
+        <v>107</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14938,42 +14978,46 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
       </c>
@@ -15021,19 +15065,19 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -15042,7 +15086,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15053,21 +15097,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>600</v>
+        <v>538</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>78</v>
@@ -15079,18 +15123,20 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>112</v>
+        <v>541</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O110" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
       </c>
@@ -15099,7 +15145,7 @@
         <v>78</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>78</v>
+        <v>608</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>78</v>
@@ -15114,10 +15160,10 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>78</v>
@@ -15138,19 +15184,19 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>117</v>
+        <v>538</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15159,7 +15205,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>107</v>
+        <v>534</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15170,46 +15216,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>601</v>
+        <v>545</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>110</v>
+        <v>610</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>78</v>
       </c>
@@ -15257,19 +15299,19 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15278,7 +15320,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15289,21 +15331,21 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>78</v>
@@ -15315,17 +15357,17 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -15350,10 +15392,10 @@
         <v>78</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>606</v>
+        <v>78</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>78</v>
@@ -15374,13 +15416,13 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>78</v>
@@ -15395,7 +15437,7 @@
         <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15406,10 +15448,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15417,7 +15459,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>89</v>
@@ -15432,18 +15474,16 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>530</v>
+        <v>103</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>608</v>
+        <v>104</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>609</v>
+        <v>105</v>
       </c>
       <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>610</v>
-      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
       </c>
@@ -15491,10 +15531,10 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>607</v>
+        <v>106</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>89</v>
@@ -15503,21 +15543,491 @@
         <v>78</v>
       </c>
       <c r="AJ113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO113" t="s" s="2">
+      <c r="AK116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource Task permettant de représenter les actions réalisés dans le cadre du projet personnalisé.</t>
+    <t>Profil de la ressource Task permettant de représenter les actions réalisées dans le cadre du projet personnalisé.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -925,7 +925,7 @@
     <t>Task.status</t>
   </si>
   <si>
-    <t>draft | requested | received | accepted | +</t>
+    <t>Correspondance des statuts métier avec les codes FHIR : ENPREPARATION → draft, ACTIF → in-progress, TERMINE → completed, ANNULE → cancelled.</t>
   </si>
   <si>
     <t>The current status of the task.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -977,7 +977,7 @@
 </t>
   </si>
   <si>
-    <t>TDDUI Profession</t>
+    <t>TDDUI Auteur statut</t>
   </si>
   <si>
     <t>Extension permettant de représenter la profession du professionnel.</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
